--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -791,11 +791,11 @@
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <sheetData>
     <row r="1" spans="1:46">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
+      <c r="A1" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B1" t="str">
+        <v>b</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -940,6 +940,7 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
+      <c r="E2" t="str"/>
       <c r="K2" t="s">
         <v>0</v>
       </c>
@@ -1076,6 +1077,12 @@
       </c>
       <c r="B3" t="str"/>
       <c r="C3" t="str"/>
+      <c r="I3" t="str">
+        <v>fd</v>
+      </c>
+      <c r="J3" t="str">
+        <v>gg</v>
+      </c>
       <c r="K3" t="s">
         <v>0</v>
       </c>
@@ -1210,10 +1217,11 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
+      <c r="B4" t="str"/>
       <c r="C4" t="str"/>
+      <c r="E4" t="str">
+        <v>ff</v>
+      </c>
       <c r="G4" t="str"/>
       <c r="I4" t="str"/>
       <c r="K4" t="str"/>
@@ -1349,15 +1357,9 @@
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="str">
-        <v>ss</v>
-      </c>
-      <c r="E5" t="str">
-        <v>11</v>
-      </c>
-      <c r="F5" t="str">
-        <v>ss</v>
-      </c>
+      <c r="C5" t="str"/>
+      <c r="E5" t="str"/>
+      <c r="F5" t="str"/>
       <c r="H5" t="str">
         <v>dfsfsfsdfsf</v>
       </c>
@@ -1495,9 +1497,7 @@
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="str">
-        <v>te</v>
-      </c>
+      <c r="B6" t="str"/>
       <c r="C6" t="s">
         <v>0</v>
       </c>
@@ -1512,8 +1512,8 @@
       <c r="M6" t="s">
         <v>0</v>
       </c>
-      <c r="N6" t="s">
-        <v>0</v>
+      <c r="N6" t="str">
+        <v>gg</v>
       </c>
       <c r="O6" t="s">
         <v>0</v>
@@ -1638,10 +1638,11 @@
       <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
+      <c r="C7" t="str"/>
       <c r="E7" t="str"/>
+      <c r="I7" t="str">
+        <v>d</v>
+      </c>
       <c r="K7" t="s">
         <v>0</v>
       </c>
@@ -1776,15 +1777,14 @@
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="str">
-        <v>ss</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
+      <c r="B8" t="str"/>
+      <c r="C8" t="str"/>
+      <c r="D8" t="str">
+        <v>fdf</v>
       </c>
       <c r="F8" t="str"/>
-      <c r="K8" t="s">
-        <v>0</v>
+      <c r="K8" t="str">
+        <v>yt</v>
       </c>
       <c r="L8" t="s">
         <v>0</v>
@@ -1917,12 +1917,14 @@
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
+      <c r="B9" t="str"/>
       <c r="C9" t="s">
         <v>0</v>
       </c>
+      <c r="E9" t="str">
+        <v>cxc</v>
+      </c>
+      <c r="F9" t="str"/>
       <c r="K9" t="s">
         <v>0</v>
       </c>
@@ -2063,6 +2065,9 @@
       <c r="C10" t="s">
         <v>0</v>
       </c>
+      <c r="H10" t="str">
+        <v>fd</v>
+      </c>
       <c r="J10" t="str"/>
       <c r="K10" t="s">
         <v>0</v>
@@ -2080,8 +2085,8 @@
       <c r="P10" t="s">
         <v>0</v>
       </c>
-      <c r="Q10" t="s">
-        <v>0</v>
+      <c r="Q10" t="str">
+        <v>fd</v>
       </c>
       <c r="R10" t="s">
         <v>0</v>
@@ -2196,12 +2201,8 @@
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
+      <c r="B11" t="str"/>
+      <c r="C11" t="str"/>
       <c r="K11" t="s">
         <v>0</v>
       </c>
@@ -2342,6 +2343,9 @@
       <c r="C12" t="s">
         <v>0</v>
       </c>
+      <c r="F12" t="str">
+        <v>gfg</v>
+      </c>
       <c r="K12" t="s">
         <v>0</v>
       </c>
@@ -2476,11 +2480,12 @@
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
+      <c r="B13" t="str"/>
+      <c r="C13" t="str"/>
+      <c r="D13" t="str"/>
+      <c r="E13" t="str"/>
+      <c r="J13" t="str">
+        <v>hgfhfh</v>
       </c>
       <c r="K13" t="s">
         <v>0</v>
